--- a/data/NguoiHuongDan.xlsx
+++ b/data/NguoiHuongDan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lusap\Projects\transfer_db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Linhtinh\SVTT_SQL\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4900B26E-C45A-411F-9717-A930403C1FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA71F8E7-81D2-437E-BCBC-4F95316FF972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6105" yWindow="3435" windowWidth="21600" windowHeight="11295" xr2:uid="{0EDE3BFD-3BE2-4B8A-893B-B97EB6B80CB1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0EDE3BFD-3BE2-4B8A-893B-B97EB6B80CB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
   <si>
     <t>HoTen</t>
   </si>
@@ -128,18 +125,6 @@
     <t>giangcse</t>
   </si>
   <si>
-    <t>Lưu Vĩnh Phúc</t>
-  </si>
-  <si>
-    <t>phuclv.vlg@vnpt.vn</t>
-  </si>
-  <si>
-    <t>Phòng Kinh doanh</t>
-  </si>
-  <si>
-    <t>phuclv</t>
-  </si>
-  <si>
     <t>Nguyễn Công Lượng</t>
   </si>
   <si>
@@ -167,18 +152,6 @@
     <t>haulh</t>
   </si>
   <si>
-    <t>Đặng Như Bách</t>
-  </si>
-  <si>
-    <t>bachdn.vlg@vnpt.vn</t>
-  </si>
-  <si>
-    <t>Phó trưởng phòng Kinh doanh</t>
-  </si>
-  <si>
-    <t>bachdn</t>
-  </si>
-  <si>
     <t>Phan Thế Anh</t>
   </si>
   <si>
@@ -186,6 +159,18 @@
   </si>
   <si>
     <t>anhpt</t>
+  </si>
+  <si>
+    <t>0944302698</t>
+  </si>
+  <si>
+    <t>0914747190</t>
+  </si>
+  <si>
+    <t>0774034124</t>
+  </si>
+  <si>
+    <t>0946029149</t>
   </si>
 </sst>
 </file>
@@ -196,7 +181,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -222,9 +207,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,19 +525,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C0E5D6-CDDE-40FE-9C9B-DC1D0579A0FC}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L10"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -569,7 +566,7 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -581,19 +578,16 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2">
-        <v>944302698</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -604,72 +598,66 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2">
-        <v>944302698</v>
+      <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="L2" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
         <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
         <v>18</v>
       </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4">
-        <v>914747190</v>
-      </c>
       <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
@@ -677,230 +665,145 @@
       <c r="G4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
         <v>27</v>
-      </c>
-      <c r="I4">
-        <v>914747190</v>
       </c>
       <c r="J4" t="s">
         <v>28</v>
       </c>
       <c r="K4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>29</v>
       </c>
-      <c r="L4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="C5">
-        <v>911921209</v>
-      </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5">
-        <v>911921209</v>
+        <v>31</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
         <v>18</v>
       </c>
-      <c r="L5" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6">
-        <v>774034124</v>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6">
-        <v>774034124</v>
+        <v>34</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6" t="s">
         <v>18</v>
       </c>
-      <c r="L6" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
         <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K7" t="s">
         <v>18</v>
       </c>
-      <c r="L7" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
         <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
         <v>18</v>
-      </c>
-      <c r="L8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10">
-        <v>946029149</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10">
-        <v>946029149</v>
-      </c>
-      <c r="J10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
